--- a/notebook/validate_exonuclease_assay/attach_dna_to_zif268_via_huh_tag/optimize_pcv2_zif268_expression/confirm_zif268_activity/confirm_zif268_activity_cond.xlsx
+++ b/notebook/validate_exonuclease_assay/attach_dna_to_zif268_via_huh_tag/optimize_pcv2_zif268_expression/confirm_zif268_activity/confirm_zif268_activity_cond.xlsx
@@ -135,10 +135,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="2" style="1" width="11.54"/>
@@ -196,40 +196,40 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0</v>
